--- a/TestScript.xlsx
+++ b/TestScript.xlsx
@@ -36,9 +36,6 @@
     <t>The records are entered using the business rules</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>http://localhost:52201/api/packages/addpackages</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>To view all movement of all the packages from inception</t>
+  </si>
+  <si>
+    <t>EndPiont</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -519,16 +519,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,16 +567,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -591,16 +591,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,16 +639,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,16 +687,16 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -711,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
